--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -100,11 +100,10 @@
     <t>08/31/21 04:09:59</t>
   </si>
   <si>
-    <t>7ac785a11bb923d73aa0c8a6bf13bf8e4f7fd51c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetch new source
-</t>
+    <t>4ca59991dec7947c87a72a6ad71304a7caea9059</t>
+  </si>
+  <si>
+    <t>Create 2nd.MD</t>
   </si>
 </sst>
 </file>
@@ -665,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.17442203704</v>
+        <v>44439.90449287037</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -100,10 +100,10 @@
     <t>08/31/21 04:09:59</t>
   </si>
   <si>
-    <t>4ca59991dec7947c87a72a6ad71304a7caea9059</t>
-  </si>
-  <si>
-    <t>Create 2nd.MD</t>
+    <t>fc732a4d17eead02339ff5db6cbdfeae5bca69c1</t>
+  </si>
+  <si>
+    <t>Create 3rd.MD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.90449287037</v>
+        <v>44439.90654765046</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -100,10 +100,10 @@
     <t>08/31/21 04:09:59</t>
   </si>
   <si>
-    <t>fc732a4d17eead02339ff5db6cbdfeae5bca69c1</t>
-  </si>
-  <si>
-    <t>Create 3rd.MD</t>
+    <t>1e861c209f54168c72b956fd8a3367b5c8cc0f27</t>
+  </si>
+  <si>
+    <t>Delete jt.MD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.90654765046</v>
+        <v>44439.90800523148</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Test Case Script Location</t>
+  </si>
+  <si>
+    <t>1 st</t>
   </si>
   <si>
     <t>N/A</t>
@@ -94,16 +97,22 @@
     <t>KichiFinn&lt;hbkcntt@gmail.com&gt;</t>
   </si>
   <si>
+    <t>Juichi Takahashi&lt;44660552+juichitaka@users.noreply.github.com&gt;</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>08/31/21 04:09:59</t>
   </si>
   <si>
-    <t>1e861c209f54168c72b956fd8a3367b5c8cc0f27</t>
-  </si>
-  <si>
-    <t>Delete jt.MD</t>
+    <t>08/31/21 22:50:00</t>
+  </si>
+  <si>
+    <t>64491eac1f1c94c2679a61f986659ef5a03bb323</t>
+  </si>
+  <si>
+    <t>Update tc1.MD</t>
   </si>
 </sst>
 </file>
@@ -568,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,19 +599,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -610,19 +619,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -630,19 +639,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,19 +667,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.90800523148</v>
+        <v>44439.95163935185</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -109,7 +109,7 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>64491eac1f1c94c2679a61f986659ef5a03bb323</t>
+    <t>559a398a857a6815666220af82fc75e997637da0</t>
   </si>
   <si>
     <t>Update tc1.MD</t>
@@ -667,13 +667,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.95163935185</v>
+        <v>44439.95245872685</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -109,10 +109,10 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>559a398a857a6815666220af82fc75e997637da0</t>
-  </si>
-  <si>
-    <t>Update tc1.MD</t>
+    <t>6bab9d9d548da6c75ffab8af1c685ad5acccc08d</t>
+  </si>
+  <si>
+    <t>Update Template.MD</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.95245872685</v>
+        <v>44440.09135079861</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -109,10 +109,16 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>6bab9d9d548da6c75ffab8af1c685ad5acccc08d</t>
-  </si>
-  <si>
-    <t>Update Template.MD</t>
+    <t>f1b0a020cb0adbc7f58f14d9b54894dadfa44104</t>
+  </si>
+  <si>
+    <t>Update tc1.MD</t>
+  </si>
+  <si>
+    <t>Kichi&lt;kichifinn@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
 </sst>
 </file>
@@ -667,19 +673,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44440.09135079861</v>
+        <v>44440.092061979165</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -109,10 +109,10 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>f1b0a020cb0adbc7f58f14d9b54894dadfa44104</t>
-  </si>
-  <si>
-    <t>Update tc1.MD</t>
+    <t>5ef5785d932314e1e6927abae24179d18fff7505</t>
+  </si>
+  <si>
+    <t>Delete 2nd.xlsx</t>
   </si>
   <si>
     <t>Kichi&lt;kichifinn@gmail.com&gt;</t>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44440.092061979165</v>
+        <v>44440.095569143516</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -109,10 +109,10 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>5ef5785d932314e1e6927abae24179d18fff7505</t>
-  </si>
-  <si>
-    <t>Delete 2nd.xlsx</t>
+    <t>f8f3a01c44f3fa49921c10085a9dea2b38a922d9</t>
+  </si>
+  <si>
+    <t>Update Template.MD</t>
   </si>
   <si>
     <t>Kichi&lt;kichifinn@gmail.com&gt;</t>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44440.095569143516</v>
+        <v>44440.099195625</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/my_basic/tc1.xlsx
+++ b/Reports/my_basic/tc1.xlsx
@@ -109,10 +109,10 @@
     <t>08/31/21 22:50:00</t>
   </si>
   <si>
-    <t>f8f3a01c44f3fa49921c10085a9dea2b38a922d9</t>
-  </si>
-  <si>
-    <t>Update Template.MD</t>
+    <t>4aa193c552d1e235acfad3c67c87e8587b9ed528</t>
+  </si>
+  <si>
+    <t>Update 3rd.MD</t>
   </si>
   <si>
     <t>Kichi&lt;kichifinn@gmail.com&gt;</t>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44440.099195625</v>
+        <v>44440.09978582176</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
